--- a/dictionnaire_donnees.xlsx
+++ b/dictionnaire_donnees.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">Âge du bénéficiaire principal </t>
   </si>
   <si>
-    <t xml:space="preserve">âge</t>
-  </si>
-  <si>
     <t xml:space="preserve">Integer</t>
   </si>
   <si>
@@ -144,9 +141,9 @@
     <t xml:space="preserve">bmi</t>
   </si>
   <si>
-    <t xml:space="preserve">Iindice de masse corporelle, 
+    <t xml:space="preserve">Indice de masse corporelle, 
 permettant de comprendre le corps,
-poids relativement élevés ou faibles
+poids relativement élevé ou faible
 Du bénéficiaire</t>
   </si>
   <si>
@@ -186,55 +183,8 @@
 Aux États-Unis</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4 levels : northeast, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">southeast</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">southwest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, northwest </t>
-    </r>
+    <t xml:space="preserve">4 levels : northeast, southeast, 
+southwest, northwest </t>
   </si>
   <si>
     <t xml:space="preserve">southeast</t>
@@ -261,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -320,12 +270,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -514,19 +458,19 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D16" activeCellId="0" sqref="D16:D35"/>
+      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.36"/>
   </cols>
@@ -589,14 +533,14 @@
         <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6" t="n">
         <v>44207</v>
@@ -605,7 +549,7 @@
         <v>31</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -626,22 +570,22 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="7"/>
@@ -663,22 +607,22 @@
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="7"/>
@@ -700,14 +644,14 @@
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5"/>
@@ -735,22 +679,22 @@
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
@@ -772,22 +716,22 @@
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
@@ -809,22 +753,22 @@
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="7"/>

--- a/dictionnaire_donnees.xlsx
+++ b/dictionnaire_donnees.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t xml:space="preserve">2 levels : yes, no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -458,19 +461,19 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.36"/>
   </cols>
@@ -688,13 +691,13 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
@@ -716,13 +719,13 @@
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
@@ -731,7 +734,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
@@ -753,22 +756,22 @@
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="7"/>
